--- a/テーブル設計書.xlsx
+++ b/テーブル設計書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27804"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac7930599ca11dcc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C5DE419-E27E-4689-B49E-F85BC0BE1207}"/>
+  <xr:revisionPtr revIDLastSave="462" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7EA4361-0B14-4877-9B2B-9F3FC0D04C92}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,13 +128,13 @@
     <t>ANSWER_FLG</t>
   </si>
   <si>
-    <t>VARCHAR(1)</t>
+    <t>CHAR(1)</t>
   </si>
   <si>
     <t>正答("1") or 誤答("0")</t>
   </si>
   <si>
-    <t>【USER】</t>
+    <t>【USERS】</t>
   </si>
   <si>
     <t>USER_ID</t>
@@ -170,10 +170,7 @@
     <t>SEX</t>
   </si>
   <si>
-    <t>VARCHAR(5)</t>
-  </si>
-  <si>
-    <t>性別</t>
+    <t>性別(男性'M',女性'F')</t>
   </si>
   <si>
     <t>MAIL</t>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>TEL</t>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
   </si>
   <si>
     <t>電話番号</t>
@@ -870,7 +870,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -1175,37 +1175,37 @@
         <v>42</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1">
       <c r="B22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1">
       <c r="B23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>15</v>

--- a/テーブル設計書.xlsx
+++ b/テーブル設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac7930599ca11dcc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="462" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7EA4361-0B14-4877-9B2B-9F3FC0D04C92}"/>
+  <xr:revisionPtr revIDLastSave="467" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6B36EB0-B985-4BE4-9A6E-4EB30BC5218E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
     <t>ANSWER_FLG</t>
   </si>
   <si>
-    <t>CHAR(1)</t>
+    <t>VARCHAR(1)</t>
   </si>
   <si>
     <t>正答("1") or 誤答("0")</t>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>

--- a/テーブル設計書.xlsx
+++ b/テーブル設計書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27804"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac7930599ca11dcc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="467" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6B36EB0-B985-4BE4-9A6E-4EB30BC5218E}"/>
+  <xr:revisionPtr revIDLastSave="469" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{141BB6D9-7677-4BC4-B23A-363A06D4E456}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,13 +343,13 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>【USER_GRADES】</t>
+    <t>【USER_GRADE】</t>
   </si>
   <si>
     <t>GRADE_ID</t>
   </si>
   <si>
-    <t>成績連番</t>
+    <t>成績連番(自動採番)</t>
   </si>
   <si>
     <t>回答日</t>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
